--- a/Clean data sheets/Larval settlement.xlsx
+++ b/Clean data sheets/Larval settlement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21-Sp22)/Clean data sheets all weeks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21–Sp22)/Clean data sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DCE1EB9-C7E7-6B4F-A05F-A02B850C1702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB6B96A-E443-1741-88C5-4259264FFD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13680" yWindow="1820" windowWidth="25040" windowHeight="13740" xr2:uid="{9537B47A-FBF5-C54B-82A8-91FCF808C2BB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14240" xr2:uid="{9537B47A-FBF5-C54B-82A8-91FCF808C2BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,10 @@
     <t>Prct_settled</t>
   </si>
   <si>
-    <t>Control</t>
+    <t>Week 9</t>
   </si>
   <si>
-    <t>Week 9</t>
+    <t>Ambient</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D30264-2896-D940-B77B-22B5AA11FE22}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>85.714285709999999</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>75</v>
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>83.333333330000002</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>37.5</v>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>92.857142859999996</v>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>100</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>66.666666669999998</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>100</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>20</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>75</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -823,10 +823,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38">
         <v>72.222222219999992</v>
@@ -834,10 +834,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39">
         <v>43.548387099999999</v>
@@ -845,10 +845,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <v>68.656716419999995</v>
@@ -856,10 +856,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41">
         <v>70</v>
@@ -867,10 +867,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42">
         <v>39.130434780000002</v>
@@ -878,10 +878,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <v>43.75</v>
@@ -889,10 +889,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44">
         <v>36.363636360000001</v>
@@ -900,10 +900,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45">
         <v>12.5</v>
@@ -911,10 +911,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46">
         <v>42.201834859999998</v>
@@ -922,10 +922,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47">
         <v>23.880597009999999</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48">
         <v>24</v>
@@ -944,10 +944,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49">
         <v>20</v>
